--- a/Aproximaciones.xlsx
+++ b/Aproximaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ESCOM\MLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B01D6B-9AFA-457E-BBDD-F4C7F696026D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4FDE8-CA54-4A8D-9098-314018950F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11970" xr2:uid="{3F7B6156-0F50-479B-BE43-1743774885AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Intento</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>400/1000 (Early stopping)</t>
+  </si>
+  <si>
+    <t>Aproximación 3</t>
+  </si>
+  <si>
+    <t>Aproximación 4</t>
+  </si>
+  <si>
+    <t>2000/2000</t>
+  </si>
+  <si>
+    <t>[1 15 15 1]</t>
+  </si>
+  <si>
+    <t>[1 20 20 1]</t>
+  </si>
+  <si>
+    <t>500/2000 (Early stopping)</t>
+  </si>
+  <si>
+    <t>1200/5000 (Early stopping)</t>
+  </si>
+  <si>
+    <t>[1 22 22 1]</t>
+  </si>
+  <si>
+    <t>Aproximación 5</t>
   </si>
 </sst>
 </file>
@@ -146,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -158,6 +185,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EA0697-2E9C-4A4F-9F4E-BBD072C6B2B5}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +514,13 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -494,8 +529,62 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,8 +603,44 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="3">
+        <v>7.8409000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -534,8 +659,44 @@
       <c r="F4" s="3">
         <v>0.61426999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="6">
+        <v>7.2129999999999998E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3">
+        <v>6.2768000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -554,8 +715,34 @@
       <c r="F5" s="3">
         <v>0.60584099999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3.7460000000000002E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -574,8 +761,34 @@
       <c r="F6">
         <v>0.64855300000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="6">
+        <v>3.114E-3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -594,8 +807,34 @@
       <c r="F7">
         <v>0.59306199999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.8979999999999999E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -614,8 +853,34 @@
       <c r="F8" s="3">
         <v>0.57170900000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.493E-3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -634,8 +899,16 @@
       <c r="F9" s="2">
         <v>0.37090899999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>7</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -655,7 +928,7 @@
         <v>9.8060000000000005E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -664,8 +937,16 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +965,26 @@
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -704,8 +1003,26 @@
       <c r="F17" s="3">
         <v>0.104523</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.41968100000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -724,8 +1041,26 @@
       <c r="F18" s="3">
         <v>3.5292999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>0.50831099999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -744,8 +1079,26 @@
       <c r="F19" s="3">
         <v>3.0072999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>0.366865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -764,8 +1117,26 @@
       <c r="F20" s="3">
         <v>2.1104999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>0.34931099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -784,8 +1155,26 @@
       <c r="F21" s="3">
         <v>9.5069999999999998E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>0.36487900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -804,8 +1193,11 @@
       <c r="F22" s="2">
         <v>5.3189999999999999E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -824,11 +1216,14 @@
       <c r="F23" s="1">
         <v>2.1080000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -837,9 +1232,12 @@
       <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="O1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Aproximaciones.xlsx
+++ b/Aproximaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ESCOM\MLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4FDE8-CA54-4A8D-9098-314018950F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CC4EB-F2E9-4E38-921D-D5045DDB3B9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11970" xr2:uid="{3F7B6156-0F50-479B-BE43-1743774885AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>Intento</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Aproximación 5</t>
+  </si>
+  <si>
+    <t>15000/15000</t>
   </si>
 </sst>
 </file>
@@ -182,13 +185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +509,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,35 +519,35 @@
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H2" s="2" t="s">
@@ -606,34 +609,34 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="3">
         <v>0.01</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="3">
@@ -662,34 +665,34 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>7.2129999999999998E-3</v>
       </c>
       <c r="O4" s="3">
         <v>2</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="3">
         <v>0.01</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T4" s="3">
@@ -718,29 +721,39 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>3.7460000000000002E-3</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2.7347E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -761,27 +774,25 @@
       <c r="F6">
         <v>0.64855300000000005</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>3.114E-3</v>
       </c>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -825,9 +836,7 @@
       <c r="M7" s="1">
         <v>1.8979999999999999E-3</v>
       </c>
-      <c r="O7" s="3">
-        <v>5</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -871,9 +880,7 @@
       <c r="M8" s="1">
         <v>1.493E-3</v>
       </c>
-      <c r="O8" s="3">
-        <v>6</v>
-      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -899,9 +906,7 @@
       <c r="F9" s="2">
         <v>0.37090899999999999</v>
       </c>
-      <c r="O9" s="3">
-        <v>7</v>
-      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -929,22 +934,22 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1006,19 +1011,19 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>0.41968100000000003</v>
       </c>
     </row>
@@ -1044,16 +1049,16 @@
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M18">
@@ -1082,16 +1087,16 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M19">
@@ -1120,16 +1125,16 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M20">
@@ -1158,16 +1163,16 @@
       <c r="H21">
         <v>5</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M21">
